--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -88,7 +88,7 @@
     <t>Ccr10</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1181316666666666</v>
+        <v>0.1181316666666667</v>
       </c>
       <c r="H2">
         <v>0.354395</v>
       </c>
       <c r="I2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="J2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>0.05725774942055555</v>
+        <v>0.0674082128788889</v>
       </c>
       <c r="R2">
-        <v>0.515319744785</v>
+        <v>0.6066739159100001</v>
       </c>
       <c r="S2">
-        <v>0.1929301729634484</v>
+        <v>0.08050364361137445</v>
       </c>
       <c r="T2">
-        <v>0.1929301729634484</v>
+        <v>0.08050364361137446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1181316666666666</v>
+        <v>0.1181316666666667</v>
       </c>
       <c r="H3">
         <v>0.354395</v>
       </c>
       <c r="I3">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="J3">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>0.02596530095611111</v>
+        <v>0.05725774942055555</v>
       </c>
       <c r="R3">
-        <v>0.233687708605</v>
+        <v>0.515319744785</v>
       </c>
       <c r="S3">
-        <v>0.0874901660509922</v>
+        <v>0.06838124401285514</v>
       </c>
       <c r="T3">
-        <v>0.0874901660509922</v>
+        <v>0.06838124401285516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1181316666666666</v>
+        <v>0.1181316666666667</v>
       </c>
       <c r="H4">
         <v>0.354395</v>
       </c>
       <c r="I4">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="J4">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.005783017609999999</v>
+        <v>0.0362650434638889</v>
       </c>
       <c r="R4">
-        <v>0.05204715848999999</v>
+        <v>0.326385391175</v>
       </c>
       <c r="S4">
-        <v>0.01948589665222546</v>
+        <v>0.04331027347978014</v>
       </c>
       <c r="T4">
-        <v>0.01948589665222546</v>
+        <v>0.04331027347978014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2757636666666667</v>
+        <v>0.4965126666666667</v>
       </c>
       <c r="H5">
-        <v>0.8272910000000001</v>
+        <v>1.489538</v>
       </c>
       <c r="I5">
-        <v>0.7000937643333339</v>
+        <v>0.8078048388959902</v>
       </c>
       <c r="J5">
-        <v>0.700093764333334</v>
+        <v>0.8078048388959903</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N5">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q5">
-        <v>0.1336610865725556</v>
+        <v>0.2833197268448889</v>
       </c>
       <c r="R5">
-        <v>1.202949779153</v>
+        <v>2.549877541604</v>
       </c>
       <c r="S5">
-        <v>0.4503714660791044</v>
+        <v>0.3383604066016718</v>
       </c>
       <c r="T5">
-        <v>0.4503714660791044</v>
+        <v>0.3383604066016718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2757636666666667</v>
+        <v>0.4965126666666667</v>
       </c>
       <c r="H6">
-        <v>0.8272910000000001</v>
+        <v>1.489538</v>
       </c>
       <c r="I6">
-        <v>0.7000937643333339</v>
+        <v>0.8078048388959902</v>
       </c>
       <c r="J6">
-        <v>0.700093764333334</v>
+        <v>0.8078048388959903</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N6">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q6">
-        <v>0.06061276201211113</v>
+        <v>0.2406568759615555</v>
       </c>
       <c r="R6">
-        <v>0.5455148581090001</v>
+        <v>2.165911883654</v>
       </c>
       <c r="S6">
-        <v>0.2042348988063923</v>
+        <v>0.2874094201228014</v>
       </c>
       <c r="T6">
-        <v>0.2042348988063923</v>
+        <v>0.2874094201228015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2757636666666667</v>
+        <v>0.4965126666666667</v>
       </c>
       <c r="H7">
-        <v>0.8272910000000001</v>
+        <v>1.489538</v>
       </c>
       <c r="I7">
-        <v>0.7000937643333339</v>
+        <v>0.8078048388959902</v>
       </c>
       <c r="J7">
-        <v>0.700093764333334</v>
+        <v>0.8078048388959903</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N7">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q7">
-        <v>0.013499734538</v>
+        <v>0.1524235960188889</v>
       </c>
       <c r="R7">
-        <v>0.121497610842</v>
+        <v>1.37181236417</v>
       </c>
       <c r="S7">
-        <v>0.04548739944783717</v>
+        <v>0.182035012171517</v>
       </c>
       <c r="T7">
-        <v>0.04548739944783718</v>
+        <v>0.182035012171517</v>
       </c>
     </row>
   </sheetData>
